--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beacon\Beacon\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Beacon\Project 0360-AI\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE061E2-4A48-425E-8795-D31F2932F912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="4335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="4335"/>
   </bookViews>
   <sheets>
-    <sheet name="BorrowerTab" sheetId="11" r:id="rId1"/>
-    <sheet name="AccountsTab" sheetId="12" r:id="rId2"/>
+    <sheet name="CollectionAgency" sheetId="11" r:id="rId1"/>
+    <sheet name="bnb" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -37,12 +36,6 @@
     <t>TestScenario</t>
   </si>
   <si>
-    <t>Search Name</t>
-  </si>
-  <si>
-    <t>CIF ID</t>
-  </si>
-  <si>
     <t>Search Value</t>
   </si>
   <si>
@@ -115,19 +108,25 @@
     <t>Jan</t>
   </si>
   <si>
-    <t>TC_ProcessSheet_BorrowerTab</t>
-  </si>
-  <si>
     <t>TC_ProcessSheet_AccountsTab</t>
   </si>
   <si>
     <t>Ac Sanction Ref No</t>
+  </si>
+  <si>
+    <t>TC_ProcessSheet_CollectionAgency</t>
+  </si>
+  <si>
+    <t>Role5</t>
+  </si>
+  <si>
+    <t>Role Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,17 +482,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF6C6-1900-4515-ACC8-CFB2E20222C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
@@ -513,52 +512,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -569,7 +568,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3">
         <v>30881172</v>
@@ -578,40 +577,40 @@
         <v>2000</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3">
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3">
         <v>345002</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3">
         <v>45678888</v>
@@ -623,11 +622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787BD8A-F5EF-4C74-BC86-E84355DABC17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,19 +646,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3">
         <v>45678888</v>
@@ -679,7 +678,7 @@
         <v>2022</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3">
         <v>11</v>
